--- a/dist/document/dest/2020/10/van anh.xlsx
+++ b/dist/document/dest/2020/10/van anh.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: Vân Anh</t>
+    <t>TDV: Vân Anh</t>
   </si>
   <si>
     <t>BẢNG CHIẾT KHẤU TỔNG HỢP</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -92,9 +92,6 @@
     <t>Sopezid (Esomeprazole 40mg)</t>
   </si>
   <si>
-    <t>Zantagel (Oxethazaine, dried aluminum, magnesium)</t>
-  </si>
-  <si>
     <t>TỔNG</t>
   </si>
   <si>
@@ -107,42 +104,36 @@
     <t>TÊN THUỐC/BS</t>
   </si>
   <si>
+    <t>Ngô Minh</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Võ Trọng</t>
+  </si>
+  <si>
+    <t>Thịnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân</t>
+  </si>
+  <si>
+    <t>Trình</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuyết</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
     <t>Phan Nguyên Thiên</t>
   </si>
   <si>
     <t>Châu</t>
   </si>
   <si>
-    <t>Ngô Minh</t>
-  </si>
-  <si>
-    <t>Đức</t>
-  </si>
-  <si>
-    <t>Võ Trọng</t>
-  </si>
-  <si>
-    <t>Thịnh</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân</t>
-  </si>
-  <si>
-    <t>Trình</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuyết</t>
-  </si>
-  <si>
-    <t>Vân</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Kim</t>
-  </si>
-  <si>
-    <t>Hường</t>
-  </si>
-  <si>
     <t>Phạm Thiện</t>
   </si>
   <si>
@@ -155,46 +146,34 @@
     <t>Dũng</t>
   </si>
   <si>
+    <t>Tôn Nữ Sao</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Trương Công</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
     <t>Mai Huỳnh</t>
   </si>
   <si>
     <t>Lạc</t>
   </si>
   <si>
-    <t>Tôn Nữ Sao</t>
-  </si>
-  <si>
-    <t>Mai</t>
+    <t>Lương Thanh</t>
+  </si>
+  <si>
+    <t>Bửu</t>
   </si>
   <si>
     <t>Đặng Vĩnh</t>
   </si>
   <si>
     <t>Phúc</t>
-  </si>
-  <si>
-    <t>Trương Công</t>
-  </si>
-  <si>
-    <t>Thành</t>
-  </si>
-  <si>
-    <t>Nguyễn văn</t>
-  </si>
-  <si>
-    <t>Hưng</t>
-  </si>
-  <si>
-    <t>Lương Thanh</t>
-  </si>
-  <si>
-    <t>Bửu</t>
-  </si>
-  <si>
-    <t>Vũ Thị Thanh</t>
-  </si>
-  <si>
-    <t>Huyền</t>
   </si>
   <si>
     <t>TỔNG CỘNG</t>
@@ -651,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -659,7 +638,7 @@
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -737,19 +716,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>3978</v>
+        <v>1307</v>
       </c>
       <c r="D6" s="10">
         <v>8900</v>
       </c>
       <c r="E6" s="10">
-        <v>35404200</v>
+        <v>11632300</v>
       </c>
       <c r="F6" s="10">
         <v>55</v>
       </c>
       <c r="G6" s="10">
-        <v>19472310</v>
+        <v>6397765</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -760,19 +739,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>1510</v>
+        <v>2495</v>
       </c>
       <c r="D7" s="10">
         <v>13000</v>
       </c>
       <c r="E7" s="10">
-        <v>19630000</v>
+        <v>32435000</v>
       </c>
       <c r="F7" s="10">
         <v>55</v>
       </c>
       <c r="G7" s="10">
-        <v>10796500</v>
+        <v>17839250</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -783,19 +762,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="D8" s="10">
         <v>9000</v>
       </c>
       <c r="E8" s="10">
-        <v>3267000</v>
+        <v>2286000</v>
       </c>
       <c r="F8" s="10">
         <v>55</v>
       </c>
       <c r="G8" s="10">
-        <v>1796850</v>
+        <v>1257300</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -806,19 +785,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>4048</v>
+        <v>3563</v>
       </c>
       <c r="D9" s="10">
         <v>12000</v>
       </c>
       <c r="E9" s="10">
-        <v>48576000</v>
+        <v>42756000</v>
       </c>
       <c r="F9" s="10">
         <v>42</v>
       </c>
       <c r="G9" s="10">
-        <v>20401920</v>
+        <v>17957520</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -829,19 +808,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>4076</v>
+        <v>2571</v>
       </c>
       <c r="D10" s="10">
         <v>3000</v>
       </c>
       <c r="E10" s="10">
-        <v>12228000</v>
+        <v>7713000</v>
       </c>
       <c r="F10" s="10">
         <v>55</v>
       </c>
       <c r="G10" s="10">
-        <v>6725400</v>
+        <v>4242150</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -852,19 +831,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>260</v>
+        <v>385</v>
       </c>
       <c r="D11" s="10">
         <v>3700</v>
       </c>
       <c r="E11" s="10">
-        <v>962000</v>
+        <v>1424500</v>
       </c>
       <c r="F11" s="10">
         <v>55</v>
       </c>
       <c r="G11" s="10">
-        <v>529100</v>
+        <v>783475</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -898,19 +877,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="D13" s="10">
         <v>4700</v>
       </c>
       <c r="E13" s="10">
-        <v>958800</v>
+        <v>390100</v>
       </c>
       <c r="F13" s="10">
         <v>40</v>
       </c>
       <c r="G13" s="10">
-        <v>383520</v>
+        <v>156040</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -921,19 +900,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="10">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D14" s="10">
         <v>14700</v>
       </c>
       <c r="E14" s="10">
-        <v>2322600</v>
+        <v>2528400</v>
       </c>
       <c r="F14" s="10">
         <v>54</v>
       </c>
       <c r="G14" s="10">
-        <v>1254204</v>
+        <v>1365336</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -944,19 +923,19 @@
         <v>20</v>
       </c>
       <c r="C15" s="10">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D15" s="10">
         <v>14000</v>
       </c>
       <c r="E15" s="10">
-        <v>6020000</v>
+        <v>5880000</v>
       </c>
       <c r="F15" s="10">
         <v>55</v>
       </c>
       <c r="G15" s="10">
-        <v>3311000</v>
+        <v>3234000</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -967,19 +946,19 @@
         <v>21</v>
       </c>
       <c r="C16" s="10">
-        <v>908</v>
+        <v>615</v>
       </c>
       <c r="D16" s="10">
         <v>5100</v>
       </c>
       <c r="E16" s="10">
-        <v>4630800</v>
+        <v>3136500</v>
       </c>
       <c r="F16" s="10">
         <v>55</v>
       </c>
       <c r="G16" s="10">
-        <v>2546940</v>
+        <v>1725075</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -990,19 +969,19 @@
         <v>22</v>
       </c>
       <c r="C17" s="10">
-        <v>285</v>
+        <v>429</v>
       </c>
       <c r="D17" s="10">
         <v>6000</v>
       </c>
       <c r="E17" s="10">
-        <v>1710000</v>
+        <v>2574000</v>
       </c>
       <c r="F17" s="10">
         <v>54</v>
       </c>
       <c r="G17" s="10">
-        <v>923400</v>
+        <v>1389960</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1013,19 +992,19 @@
         <v>23</v>
       </c>
       <c r="C18" s="10">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10">
         <v>9900</v>
       </c>
       <c r="E18" s="10">
-        <v>2574000</v>
+        <v>297000</v>
       </c>
       <c r="F18" s="10">
         <v>40</v>
       </c>
       <c r="G18" s="10">
-        <v>1029600</v>
+        <v>118800</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1036,19 +1015,19 @@
         <v>24</v>
       </c>
       <c r="C19" s="10">
-        <v>17305</v>
+        <v>14152</v>
       </c>
       <c r="D19" s="10">
         <v>7900</v>
       </c>
       <c r="E19" s="10">
-        <v>136709500</v>
+        <v>111800800</v>
       </c>
       <c r="F19" s="10">
         <v>53</v>
       </c>
       <c r="G19" s="10">
-        <v>72456035</v>
+        <v>59254424</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1059,77 +1038,54 @@
         <v>25</v>
       </c>
       <c r="C20" s="10">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="D20" s="10">
         <v>15000</v>
       </c>
       <c r="E20" s="10">
-        <v>0</v>
+        <v>16725000</v>
       </c>
       <c r="F20" s="10">
         <v>55</v>
       </c>
       <c r="G20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>16</v>
-      </c>
-      <c r="B21" s="9" t="s">
+        <v>9198750</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>6926</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>40</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="11">
+        <v>27621</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11">
+        <v>241656600</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
+        <v>124958845</v>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11">
-        <v>33815</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11">
-        <v>275070900</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
-        <v>141665779</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.45" bottom="0.45" header="0.2" footer="0.2"/>
@@ -1139,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E66"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
@@ -1168,7 +1124,7 @@
     </row>
     <row r="3" ht="22" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1189,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1207,7 +1163,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14">
-        <v>3978</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1216,13 +1172,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="10">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1231,13 +1187,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="10">
-        <v>980</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1246,13 +1202,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="10">
-        <v>1713</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1261,350 +1217,348 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="10">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9">
-        <v>5</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="10">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14">
-        <v>1510</v>
+      <c r="E12" s="10">
+        <v>305</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="10">
-        <v>180</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="10">
-        <v>774</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="10">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="10">
-        <v>144</v>
+      <c r="A17" s="13">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14">
+        <v>254</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>3</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14">
-        <v>363</v>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10">
+        <v>180</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="10">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E20" s="10">
-        <v>263</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
+      <c r="A21" s="13">
+        <v>4</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14">
+        <v>3563</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E22" s="10">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" s="10">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="10">
-        <v>0</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9">
         <v>4</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14">
-        <v>4048</v>
+      <c r="C25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2481</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E26" s="10">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="10">
-        <v>330</v>
+      <c r="A27" s="13">
+        <v>5</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14">
+        <v>2571</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E28" s="10">
-        <v>0</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="E29" s="10">
-        <v>389</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E30" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E31" s="10">
-        <v>2857</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E32" s="10">
-        <v>472</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="14">
-        <v>4076</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1613,13 +1567,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E34" s="10">
-        <v>2005</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1628,13 +1582,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E35" s="10">
-        <v>899</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1643,217 +1597,211 @@
         <v>3</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E36" s="10">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9">
-        <v>4</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="10">
-        <v>290</v>
+      <c r="A37" s="13">
+        <v>7</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E38" s="10">
-        <v>570</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9">
-        <v>6</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="10">
-        <v>312</v>
+      <c r="A39" s="13">
+        <v>8</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14">
+        <v>83</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14">
-        <v>260</v>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="10">
+        <v>83</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="10">
-        <v>120</v>
+      <c r="A41" s="13">
+        <v>9</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14">
+        <v>172</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E42" s="10">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E43" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9">
-        <v>4</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="10">
-        <v>110</v>
+      <c r="A44" s="13">
+        <v>10</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14">
+        <v>420</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E45" s="10">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9">
-        <v>6</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
+      <c r="A46" s="13">
+        <v>11</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14">
+        <v>615</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>7</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14">
-        <v>30</v>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="10">
+        <v>421</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E48" s="10">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E49" s="10">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="14">
-        <v>204</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1862,69 +1810,69 @@
         <v>1</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E51" s="10">
-        <v>204</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>9</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14">
-        <v>158</v>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="10">
+        <v>414</v>
       </c>
     </row>
     <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="10">
-        <v>144</v>
+      <c r="A53" s="13">
+        <v>13</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E54" s="10">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="14">
-        <v>430</v>
+        <v>14152</v>
       </c>
     </row>
     <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1933,13 +1881,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E56" s="10">
-        <v>420</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1948,405 +1896,144 @@
         <v>2</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E57" s="10">
-        <v>10</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="58" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>11</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14">
-        <v>908</v>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9">
+        <v>3</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="10">
+        <v>3665</v>
       </c>
     </row>
     <row r="59" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E59" s="10">
-        <v>574</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E60" s="10">
-        <v>284</v>
+        <v>696</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9">
-        <v>3</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="10">
-        <v>50</v>
+      <c r="A61" s="13">
+        <v>15</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14">
+        <v>1115</v>
       </c>
     </row>
     <row r="62" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>12</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14">
-        <v>285</v>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E63" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9">
-        <v>2</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E64" s="10">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>13</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14">
-        <v>260</v>
-      </c>
-    </row>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="11">
+        <v>27621</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9">
-        <v>2</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="10">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="68" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>14</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14">
-        <v>17305</v>
-      </c>
-    </row>
-    <row r="69" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9">
-        <v>1</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E70" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9">
-        <v>3</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E71" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9">
-        <v>4</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="10">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="73" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9">
-        <v>5</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="10">
-        <v>10518</v>
-      </c>
-    </row>
-    <row r="74" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9">
-        <v>6</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" s="10">
-        <v>4732</v>
-      </c>
-    </row>
-    <row r="75" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9">
-        <v>7</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="10">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="76" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9">
-        <v>8</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="10">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="77" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>15</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9">
-        <v>1</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>16</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9">
-        <v>1</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="11">
-        <v>33815</v>
-      </c>
-    </row>
-    <row r="83" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="4"/>
+      <c r="A66" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A64:D64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
